--- a/신제품 대응 유사제품/Readme-reg.xlsx
+++ b/신제품 대응 유사제품/Readme-reg.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A339649-B762-4363-A35C-9FD3C86CF8DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="7872" tabRatio="904" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="시나리오 1.1. 생산량 예측 (단순 선형)" sheetId="1" r:id="rId1"/>
-    <sheet name="시나리오 1.2. 생산량 예측 (Auto, Neural)" sheetId="8" r:id="rId2"/>
-    <sheet name="시나리오 2.1. 유사제품 예측 (차분) " sheetId="10" r:id="rId3"/>
-    <sheet name="시나리오 2.2. 월단위 유사제품 예측 (차분) " sheetId="9" r:id="rId4"/>
-    <sheet name="시나리오 3. 평균 예측 (선형분석)" sheetId="11" r:id="rId5"/>
-    <sheet name="시나리오 4.  유사도 분석" sheetId="7" r:id="rId6"/>
+    <sheet name="시나리오 1. 생산량 예측 (단순 선형)" sheetId="1" r:id="rId1"/>
+    <sheet name="시나리오 1.1. 생산량 예측 (Auto, Neural)" sheetId="8" r:id="rId2"/>
+    <sheet name="시나리오 2. 유사제품수요증감예측 " sheetId="10" r:id="rId3"/>
+    <sheet name="시나리오 2.1 유사제품월별수요증감예측 " sheetId="9" r:id="rId4"/>
+    <sheet name="시나리오 3. 월평균 예측 (선형분석)" sheetId="11" r:id="rId5"/>
+    <sheet name="시나리오 4.  유사도 분석 (거리계산)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="153">
   <si>
     <t>col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,11 +685,15 @@
     <t>4.  유사도 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(단순 선형에서만 산출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,6 +862,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,9 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,23 +966,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1015,23 +1001,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,11 +1176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1247,10 +1216,10 @@
       <c r="B2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -1285,11 +1254,11 @@
       <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -1335,11 +1304,11 @@
       <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
@@ -1365,7 +1334,9 @@
         <v>14</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
@@ -1614,11 +1585,11 @@
       <c r="E46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
@@ -1712,11 +1683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1757,10 +1728,10 @@
       <c r="B2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -2044,9 +2015,9 @@
       <c r="G22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23"/>
@@ -2335,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39240DA7-58E3-42A1-924D-ECD9A8C9B9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2375,11 +2346,11 @@
       <c r="B2" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -2414,11 +2385,11 @@
       <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -2475,10 +2446,10 @@
       <c r="E13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
@@ -2508,11 +2479,11 @@
       <c r="E17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
@@ -2614,9 +2585,9 @@
       <c r="G28" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C29" s="6" t="s">
@@ -2829,11 +2800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D33FBB9-01F4-4D98-B321-FD2B9A5E70D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2874,10 +2845,10 @@
       <c r="B2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -3199,9 +3170,9 @@
       <c r="G25" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26"/>
@@ -3414,11 +3385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D72008-2D29-45CF-89A9-D6A91ECF2597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3447,18 +3418,18 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:8" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -3493,11 +3464,11 @@
       <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
@@ -3554,10 +3525,10 @@
       <c r="E13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
@@ -3587,11 +3558,11 @@
       <c r="E17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
@@ -3635,11 +3606,11 @@
       <c r="E22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
@@ -3663,7 +3634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" s="4" t="s">
         <v>146</v>
       </c>
@@ -3700,11 +3671,11 @@
       <c r="E28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
@@ -4004,12 +3975,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4018,10 +3989,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4060,10 +4031,10 @@
       <c r="B2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4106,11 +4077,11 @@
       <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E7" s="4"/>
@@ -4160,11 +4131,11 @@
       <c r="E12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4"/>
@@ -4340,11 +4311,11 @@
       <c r="E33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E34" s="4"/>

--- a/신제품 대응 유사제품/Readme-reg.xlsx
+++ b/신제품 대응 유사제품/Readme-reg.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B58A0-F3EF-4179-8531-1625BE2FB1B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="7872" tabRatio="904" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="904" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오 1. 생산량 예측 (단순 선형)" sheetId="1" r:id="rId1"/>
@@ -487,14 +488,6 @@
   </si>
   <si>
     <t>과거 데이터 index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1. 생산량 예측 (단순 선형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2. 생산량 예측 (Auto_ML/Neural_net)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,11 +682,19 @@
     <t>(단순 선형에서만 산출)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 생산량 예측 (단순 선형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1. 생산량 예측 (Auto_ML/Neural_net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,6 +967,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1001,6 +1019,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1176,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1211,7 +1246,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>94</v>
@@ -1335,7 +1370,7 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1683,11 +1718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1723,7 +1758,7 @@
     </row>
     <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>95</v>
@@ -2306,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2341,13 +2376,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -2383,7 +2418,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>8</v>
@@ -2439,35 +2474,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
         <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2477,42 +2512,42 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="E17" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
@@ -2525,7 +2560,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
         <v>107</v>
@@ -2602,7 +2637,7 @@
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C30" s="34"/>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
         <v>107</v>
@@ -2656,7 +2691,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2689,25 +2724,25 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E42" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E43" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2717,25 +2752,25 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E47" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2751,7 +2786,7 @@
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C52" s="34"/>
       <c r="E52" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
         <v>107</v>
@@ -2800,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2840,10 +2875,10 @@
     </row>
     <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>96</v>
@@ -3385,7 +3420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3420,13 +3455,13 @@
     </row>
     <row r="2" spans="1:8" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -3462,7 +3497,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>8</v>
@@ -3486,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -3518,35 +3553,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
         <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -3556,42 +3591,42 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E17" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -3604,7 +3639,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E22" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>14</v>
@@ -3636,7 +3671,7 @@
     </row>
     <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -3669,7 +3704,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>20</v>
@@ -3731,7 +3766,7 @@
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -3746,7 +3781,7 @@
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C36" s="34"/>
       <c r="E36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3766,7 +3801,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3787,7 +3822,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
@@ -3823,7 +3858,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E47" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -3856,25 +3891,25 @@
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E54" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.4">
@@ -3884,25 +3919,25 @@
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E58" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.4">
@@ -3917,7 +3952,7 @@
     <row r="63" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C63" s="34"/>
       <c r="E63" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -3936,7 +3971,7 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -3957,7 +3992,7 @@
         <v>31</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
@@ -3989,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4026,7 +4061,7 @@
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>73</v>
